--- a/datasets/Invoices.xlsx
+++ b/datasets/Invoices.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Delivery_Content/Deloitte/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Delivery_Content/Deloitte/Deloitte_Power_Query/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{33B6DFF5-7AF9-4555-A7BF-7A773537156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6E65FE6-E70E-4AF3-BFB1-84CC8C119A48}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{33B6DFF5-7AF9-4555-A7BF-7A773537156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30F91BA-AA3A-4184-893F-FC7B2F85D40B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6E79D7A3-7447-44DC-9083-606287E60895}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" activeTab="3" xr2:uid="{6E79D7A3-7447-44DC-9083-606287E60895}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoices_2022" sheetId="1" r:id="rId1"/>
     <sheet name="Invoices_2023" sheetId="3" r:id="rId2"/>
     <sheet name="Invoices_2024" sheetId="4" r:id="rId3"/>
-    <sheet name="Invoice_2025" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Invoices_2022!$A$1:$E$69</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="273">
   <si>
     <t>Invoice #</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>INV249</t>
+  </si>
+  <si>
+    <t>INV250</t>
   </si>
 </sst>
 </file>
@@ -1791,18 +1794,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.21875" style="1"/>
+    <col min="4" max="4" width="17.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.23046875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>44611</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>44690</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>44693</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>184</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>44709</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>195</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>44717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>196</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>197</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>198</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>199</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>44723</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>200</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>201</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>202</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>203</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>204</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>205</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>206</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>207</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>208</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>209</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>210</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>212</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>44829</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>214</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>44849</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>215</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>217</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>218</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>219</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>44884</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>220</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>221</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>44884</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>223</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>224</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>225</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>44906</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>227</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>228</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>229</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>230</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>44925</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>231</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>233</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>234</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>235</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>236</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>237</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>238</v>
       </c>
@@ -3199,12 +3202,12 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="7" width="18.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>242</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>243</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>244</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>245</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>246</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>247</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>248</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>249</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>250</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>251</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>252</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>253</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>254</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>256</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>257</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>258</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>259</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>260</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>261</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>262</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>263</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>264</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>265</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>266</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>267</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>268</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>269</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>45285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>45284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>45290</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -4791,22 +4794,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF78A14-190D-4E2A-905A-1990D7A4B5D5}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" customWidth="1"/>
+    <col min="4" max="4" width="12.84375" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" customWidth="1"/>
+    <col min="6" max="6" width="14.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>45415</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>45410</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>45421</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>45421</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>45446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>118</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>45486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>125</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>45508</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>129</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>130</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>45508</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>45515</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>132</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>45513</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>134</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>135</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>45530</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>136</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>139</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>141</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>142</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>144</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>150</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>151</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>152</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>153</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>154</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>45571</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>158</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>159</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>166</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>167</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>168</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>45611</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>176</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>45633</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>45633</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>179</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>181</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>45641</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>45642</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>183</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>45641</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>185</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>45640</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>188</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>189</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>190</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>45661</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>191</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>45677</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>192</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>193</v>
       </c>
@@ -6866,29 +6869,47 @@
         <v>45692</v>
       </c>
     </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45657</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45692</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ABE333-0C43-4075-AAC1-82EB087CD20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6015E8-7ABD-4DED-A1D7-1DBC789158BC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6908,12 +6929,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2">
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -6924,7 +6945,9 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>45321</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
